--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86040C08-706F-4E66-9219-06659A870383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23BCB0-47F8-4A0E-9E9C-73484FF04406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,30 @@
   </si>
   <si>
     <t>5000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,11 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,6 +942,7 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <f>B2*10</f>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="C3" t="s">
@@ -935,7 +960,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.9999999999999998E+110</v>
+        <f t="shared" ref="B4:B61" si="0">B3*10</f>
+        <v>5.0000000000000005E+110</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -952,7 +978,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.9999999999999997E+111</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000007E+111</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -969,7 +996,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.0000000000000001E+112</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+112</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -986,7 +1014,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E+113</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+113</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1003,7 +1032,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.0000000000000001E+114</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000012E+114</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -1020,7 +1050,8 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.0000000000000001E+115</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+115</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -1037,7 +1068,8 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.0000000000000003E+116</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+116</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -1054,7 +1086,8 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.9999999999999998E+117</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+117</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1071,7 +1104,8 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.9999999999999997E+118</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+118</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -1088,7 +1122,8 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.9999999999999999E+119</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+119</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1105,7 +1140,8 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.0000000000000002E+120</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+120</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1122,7 +1158,8 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.0000000000000001E+121</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+121</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -1139,7 +1176,8 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.9999999999999999E+122</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+122</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -1156,7 +1194,8 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.9999999999999997E+123</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000003E+123</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -1173,7 +1212,8 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.9999999999999996E+124</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+124</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -1190,7 +1230,8 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.9999999999999996E+125</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E+125</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -1207,7 +1248,8 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.9999999999999998E+126</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E+126</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -1224,6 +1266,7 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
         <v>5.0000000000000004E+127</v>
       </c>
       <c r="C21" t="s">
@@ -1241,6 +1284,7 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
         <v>5E+128</v>
       </c>
       <c r="C22" t="s">
@@ -1258,6 +1302,7 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="C23" t="s">
@@ -1275,7 +1320,8 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.9999999999999996E+130</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000005E+130</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
@@ -1292,7 +1338,8 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5E+131</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000007E+131</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -1309,7 +1356,8 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5E+131</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000007E+132</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -1326,7 +1374,8 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.9999999999999996E+133</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+133</v>
       </c>
       <c r="C27" t="s">
         <v>73</v>
@@ -1343,7 +1392,8 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.9999999999999998E+134</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+134</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -1360,7 +1410,8 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.0000000000000003E+135</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+135</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -1377,7 +1428,8 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.0000000000000002E+136</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000012E+136</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -1394,7 +1446,8 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.0000000000000002E+137</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+137</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -1411,7 +1464,8 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.0000000000000002E+138</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+138</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
@@ -1428,7 +1482,8 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.0000000000000003E+139</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000014E+139</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
@@ -1445,7 +1500,8 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.0000000000000001E+140</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+140</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
@@ -1462,7 +1518,8 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.0000000000000003E+141</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+141</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -1479,7 +1536,8 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.0000000000000001E+142</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000012E+142</v>
       </c>
       <c r="C36" t="s">
         <v>82</v>
@@ -1496,7 +1554,8 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.0000000000000001E+143</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+143</v>
       </c>
       <c r="C37" t="s">
         <v>83</v>
@@ -1513,7 +1572,8 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.9999999999999999E+144</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000013E+144</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
@@ -1530,7 +1590,8 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.9999999999999997E+145</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+145</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
@@ -1547,7 +1608,8 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.9999999999999999E+146</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+146</v>
       </c>
       <c r="C40" t="s">
         <v>86</v>
@@ -1564,7 +1626,8 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.0000000000000002E+147</v>
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E+147</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
@@ -1581,7 +1644,8 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.0000000000000002E+148</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+148</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -1598,7 +1662,8 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.9999999999999999E+149</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+149</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
@@ -1615,7 +1680,8 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.0000000000000001E+150</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+150</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -1632,7 +1698,8 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.0000000000000002E+151</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+151</v>
       </c>
       <c r="C45" t="s">
         <v>91</v>
@@ -1649,7 +1716,8 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5E+152</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+152</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -1666,7 +1734,8 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.0000000000000002E+153</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+153</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1683,7 +1752,8 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5E+154</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+154</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -1700,7 +1770,8 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.9999999999999999E+155</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009E+155</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
@@ -1717,7 +1788,8 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.9999999999999999E+156</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000007E+156</v>
       </c>
       <c r="C50" t="s">
         <v>96</v>
@@ -1734,7 +1806,8 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.9999999999999998E+157</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E+157</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
@@ -1751,7 +1824,8 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.9999999999999996E+158</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+158</v>
       </c>
       <c r="C52" t="s">
         <v>98</v>
@@ -1768,7 +1842,8 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.9999999999999993E+159</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+159</v>
       </c>
       <c r="C53" t="s">
         <v>99</v>
@@ -1785,7 +1860,8 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.0000000000000002E+160</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000008E+160</v>
       </c>
       <c r="C54" t="s">
         <v>100</v>
@@ -1802,7 +1878,8 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.9999999999999997E+161</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000007E+161</v>
       </c>
       <c r="C55" t="s">
         <v>101</v>
@@ -1819,7 +1896,8 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.9999999999999997E+162</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000005E+162</v>
       </c>
       <c r="C56" t="s">
         <v>102</v>
@@ -1836,7 +1914,8 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5E+163</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000006E+163</v>
       </c>
       <c r="C57" t="s">
         <v>103</v>
@@ -1846,6 +1925,78 @@
       </c>
       <c r="E57">
         <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58">
+        <v>9053</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000005E+165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59">
+        <v>9053</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60">
+        <v>9053</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>9053</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1859,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="B4:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M61"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2915,8 +3066,20 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4">
+        <v>164</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" ref="D46:D47" si="5">POWER(10,C46)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f t="shared" ref="E46:E47" si="6">RIGHT(D46,C46)</f>
+        <v>1E+164</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2933,8 +3096,20 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4">
+        <v>168</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>1E+168</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42C55B-4BF3-4B49-8F35-31508DB79B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397419B7-D481-4692-B9A8-037F700084C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,38 @@
   </si>
   <si>
     <t>5000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B65" si="0">B3*10</f>
+        <f t="shared" ref="B4:B67" si="0">B3*10</f>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="C4" t="s">
@@ -1854,6 +1886,150 @@
       </c>
       <c r="E65">
         <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999994E+172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>9053</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999992E+173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>9053</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B73" si="1">B67*10</f>
+        <v>4.9999999999999997E+174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>9053</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>5E+175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>9053</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>5E+176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>9053</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000003E+177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <v>9053</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000006E+178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>9053</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000006E+179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <v>9053</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397419B7-D481-4692-B9A8-037F700084C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87D935-9B26-419D-ADF0-1BE0A0865250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,38 @@
   </si>
   <si>
     <t>5000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1929,7 +1961,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B73" si="1">B67*10</f>
+        <f t="shared" ref="B68:B81" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2030,6 +2062,150 @@
       </c>
       <c r="E73">
         <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000005E+180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74">
+        <v>9053</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000003E+181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75">
+        <v>9053</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000003E+182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>9053</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E+183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>9053</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <v>9053</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79">
+        <v>9053</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999995E+186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>9053</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999993E+187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81">
+        <v>9053</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87D935-9B26-419D-ADF0-1BE0A0865250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602C166-CD4D-4035-8E3F-4E862AFC4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,19 +360,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000연</t>
+    <t>5피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1977,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B81" si="1">B67*10</f>
+        <f t="shared" ref="B68:B85" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2206,6 +2222,78 @@
       </c>
       <c r="E81">
         <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999995E+188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <v>9053</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83">
+        <v>9053</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E+190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84">
+        <v>9053</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E+191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85">
+        <v>9053</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602C166-CD4D-4035-8E3F-4E862AFC4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F880B-A69A-46F3-8B23-48B0D6E79F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,22 @@
   </si>
   <si>
     <t>5000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1977,7 +1993,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B85" si="1">B67*10</f>
+        <f t="shared" ref="B68:B89" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2294,6 +2310,78 @@
       </c>
       <c r="E85">
         <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999993E+192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86">
+        <v>9053</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E+193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87">
+        <v>9053</v>
+      </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999992E+194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88">
+        <v>9053</v>
+      </c>
+      <c r="E88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E+195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <v>9053</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F880B-A69A-46F3-8B23-48B0D6E79F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBD4D8-5830-426B-8969-506CB502737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackFoxTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,38 @@
   </si>
   <si>
     <t>5000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1993,7 +2025,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B89" si="1">B67*10</f>
+        <f t="shared" ref="B68:B97" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2382,6 +2414,150 @@
       </c>
       <c r="E89">
         <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E+196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90">
+        <v>9053</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>9053</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>9053</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E+199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>9053</v>
+      </c>
+      <c r="E93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999995E+200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>9053</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999995E+201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>9053</v>
+      </c>
+      <c r="E95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96">
+        <v>9053</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>9053</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBD4D8-5830-426B-8969-506CB502737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA94230E-D749-407D-84B0-F81EEC020E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,22 @@
   </si>
   <si>
     <t>5000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2025,7 +2041,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B97" si="1">B67*10</f>
+        <f t="shared" ref="B68:B101" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2558,6 +2574,78 @@
       </c>
       <c r="E97">
         <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E+204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98">
+        <v>9053</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99">
+        <v>9053</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100">
+        <v>9053</v>
+      </c>
+      <c r="E100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101">
+        <v>9053</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA94230E-D749-407D-84B0-F81EEC020E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA17EF-3231-4139-9908-928DE7A23ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,22 @@
   </si>
   <si>
     <t>5000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2041,7 +2057,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B101" si="1">B67*10</f>
+        <f t="shared" ref="B68:B105" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2646,6 +2662,78 @@
       </c>
       <c r="E101">
         <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E+208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102">
+        <v>9053</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E+209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103">
+        <v>9053</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E+210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104">
+        <v>9053</v>
+      </c>
+      <c r="E104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000005E+211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105">
+        <v>9053</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA17EF-3231-4139-9908-928DE7A23ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C6757-D24B-4084-925B-59312620632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,22 @@
   </si>
   <si>
     <t>5000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,9 +553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,7 +593,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -683,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,11 +849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2057,7 +2073,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B105" si="1">B67*10</f>
+        <f t="shared" ref="B68:B109" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2734,6 +2750,78 @@
       </c>
       <c r="E105">
         <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000007E+212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106">
+        <v>9053</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>5.000000000000001E+213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107">
+        <v>9053</v>
+      </c>
+      <c r="E107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000005E+214</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108">
+        <v>9053</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E+215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109">
+        <v>9053</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C6757-D24B-4084-925B-59312620632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84AAF6-8AD4-42C7-9831-8C7AAC5902B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,38 @@
   </si>
   <si>
     <t>5000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,11 +881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2105,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B109" si="1">B67*10</f>
+        <f t="shared" ref="B68:B117" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2822,6 +2854,150 @@
       </c>
       <c r="E109">
         <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E+216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110">
+        <v>9053</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E+217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111">
+        <v>9053</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000006E+218</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112">
+        <v>9053</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000006E+219</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113">
+        <v>9053</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114">
+        <v>9053</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115">
+        <v>9053</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>9053</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E+223</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <v>9053</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84AAF6-8AD4-42C7-9831-8C7AAC5902B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F767D50-8E93-4B68-B5D1-7D6B1AE1C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,22 @@
   </si>
   <si>
     <t>5000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2105,7 +2121,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B117" si="1">B67*10</f>
+        <f t="shared" ref="B68:B121" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -2998,6 +3014,78 @@
       </c>
       <c r="E117">
         <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E+224</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>9053</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E+225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119">
+        <v>9053</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+226</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120">
+        <v>9053</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E+227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>9053</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F767D50-8E93-4B68-B5D1-7D6B1AE1C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCEA1D-9E12-40EA-A373-B6E06C72A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,22 @@
   </si>
   <si>
     <t>5000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2121,7 +2137,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B121" si="1">B67*10</f>
+        <f t="shared" ref="B68:B125" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -3086,6 +3102,78 @@
       </c>
       <c r="E121">
         <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>5E+228</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122">
+        <v>9053</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+229</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123">
+        <v>9053</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999994E+230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124">
+        <v>9053</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E+231</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125">
+        <v>9053</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCEA1D-9E12-40EA-A373-B6E06C72A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBAB34-C2BE-44DA-A832-F85AC384B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,22 @@
   </si>
   <si>
     <t>5000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2137,7 +2153,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B125" si="1">B67*10</f>
+        <f t="shared" ref="B68:B129" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -3174,6 +3190,78 @@
       </c>
       <c r="E125">
         <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999999E+232</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126">
+        <v>9053</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E+233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127">
+        <v>9053</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000003E+234</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128">
+        <v>9053</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000003E+235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129">
+        <v>9053</v>
+      </c>
+      <c r="E129">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBAB34-C2BE-44DA-A832-F85AC384B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A80A8-74D9-49B1-91CD-C487A9690099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,22 @@
   </si>
   <si>
     <t>5000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2153,7 +2169,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B129" si="1">B67*10</f>
+        <f t="shared" ref="B68:B131" si="1">B67*10</f>
         <v>4.9999999999999997E+174</v>
       </c>
       <c r="C68" t="s">
@@ -3262,6 +3278,78 @@
       </c>
       <c r="E129">
         <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000006E+236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130">
+        <v>9053</v>
+      </c>
+      <c r="E130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000002E+237</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131">
+        <v>9053</v>
+      </c>
+      <c r="E131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <v>5.0000000000000005E+238</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132">
+        <v>9053</v>
+      </c>
+      <c r="E132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E+239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133">
+        <v>9053</v>
+      </c>
+      <c r="E133">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A80A8-74D9-49B1-91CD-C487A9690099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5078F-4EFE-4C40-9575-213FE7A4BCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,22 @@
   </si>
   <si>
     <t>5000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,11 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3321,7 +3337,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B133" si="2">B131*10</f>
+        <f t="shared" ref="B132:B137" si="2">B131*10</f>
         <v>5.0000000000000005E+238</v>
       </c>
       <c r="C132" t="s">
@@ -3350,6 +3366,78 @@
       </c>
       <c r="E133">
         <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E+240</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134">
+        <v>9053</v>
+      </c>
+      <c r="E134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000008E+241</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135">
+        <v>9053</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000004E+242</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136">
+        <v>9053</v>
+      </c>
+      <c r="E136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000004E+243</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137">
+        <v>9053</v>
+      </c>
+      <c r="E137">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5078F-4EFE-4C40-9575-213FE7A4BCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FF5CC-683A-4720-8EA2-1EC768DC13D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,22 @@
   </si>
   <si>
     <t>5000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3337,7 +3353,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B137" si="2">B131*10</f>
+        <f t="shared" ref="B132:B141" si="2">B131*10</f>
         <v>5.0000000000000005E+238</v>
       </c>
       <c r="C132" t="s">
@@ -3438,6 +3454,78 @@
       </c>
       <c r="E137">
         <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E+244</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138">
+        <v>9053</v>
+      </c>
+      <c r="E138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000003E+245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139">
+        <v>9053</v>
+      </c>
+      <c r="E139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000005E+246</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140">
+        <v>9053</v>
+      </c>
+      <c r="E140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000008E+247</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141">
+        <v>9053</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FF5CC-683A-4720-8EA2-1EC768DC13D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC71FE-9843-4BDE-B3C9-E3FECAECEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,22 @@
   </si>
   <si>
     <t>5000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3353,7 +3369,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B141" si="2">B131*10</f>
+        <f t="shared" ref="B132:B145" si="2">B131*10</f>
         <v>5.0000000000000005E+238</v>
       </c>
       <c r="C132" t="s">
@@ -3526,6 +3542,78 @@
       </c>
       <c r="E141">
         <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000006E+248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142">
+        <v>9053</v>
+      </c>
+      <c r="E142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000004E+249</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143">
+        <v>9053</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E+250</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144">
+        <v>9053</v>
+      </c>
+      <c r="E144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000005E+251</v>
+      </c>
+      <c r="C145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145">
+        <v>9053</v>
+      </c>
+      <c r="E145">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC71FE-9843-4BDE-B3C9-E3FECAECEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA0C39-4166-4F74-B568-4057506D4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,22 @@
   </si>
   <si>
     <t>5000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3385,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B145" si="2">B131*10</f>
+        <f t="shared" ref="B132:B149" si="2">B131*10</f>
         <v>5.0000000000000005E+238</v>
       </c>
       <c r="C132" t="s">
@@ -3614,6 +3630,78 @@
       </c>
       <c r="E145">
         <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000005E+252</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146">
+        <v>9053</v>
+      </c>
+      <c r="E146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000003E+253</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147">
+        <v>9053</v>
+      </c>
+      <c r="E147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999999E+254</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148">
+        <v>9053</v>
+      </c>
+      <c r="E148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E+255</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149">
+        <v>9053</v>
+      </c>
+      <c r="E149">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BlackFoxTable.xlsx
+++ b/Assets/06.Table/BlackFoxTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA0C39-4166-4F74-B568-4057506D4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB4AF0B-79E7-4B0E-AD14-0F600481F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,54 @@
   </si>
   <si>
     <t>5000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,11 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3385,7 +3433,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B149" si="2">B131*10</f>
+        <f t="shared" ref="B132:B161" si="2">B131*10</f>
         <v>5.0000000000000005E+238</v>
       </c>
       <c r="C132" t="s">
@@ -3702,6 +3750,222 @@
       </c>
       <c r="E149">
         <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E+256</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150">
+        <v>9053</v>
+      </c>
+      <c r="E150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000003E+257</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151">
+        <v>9053</v>
+      </c>
+      <c r="E151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000005E+258</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152">
+        <v>9053</v>
+      </c>
+      <c r="E152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000003E+259</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153">
+        <v>9053</v>
+      </c>
+      <c r="E153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000007E+260</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154">
+        <v>9053</v>
+      </c>
+      <c r="E154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E+261</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155">
+        <v>9053</v>
+      </c>
+      <c r="E155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000008E+262</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156">
+        <v>9053</v>
+      </c>
+      <c r="E156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000008E+263</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157">
+        <v>9053</v>
+      </c>
+      <c r="E157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000012E+264</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158">
+        <v>9053</v>
+      </c>
+      <c r="E158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000016E+265</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159">
+        <v>9053</v>
+      </c>
+      <c r="E159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000016E+266</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160">
+        <v>9053</v>
+      </c>
+      <c r="E160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000017E+267</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161">
+        <v>9053</v>
+      </c>
+      <c r="E161">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
